--- a/combined_stats.xlsx
+++ b/combined_stats.xlsx
@@ -10,14 +10,20 @@
     <sheet name="stats_equalw_multivar_norm_t162" sheetId="1" r:id="rId1"/>
     <sheet name="stats_equalw_multivar_norm_t189" sheetId="2" r:id="rId2"/>
     <sheet name="stats_equalw_multivar_norm_t252" sheetId="3" r:id="rId3"/>
-    <sheet name="stats_maxsharpe_multivar_norm_t" sheetId="4" r:id="rId4"/>
+    <sheet name="stats_equalw_multivar_t_t162" sheetId="4" r:id="rId4"/>
+    <sheet name="stats_equalw_multivar_t_t189" sheetId="5" r:id="rId5"/>
+    <sheet name="stats_equalw_multivar_t_t252" sheetId="6" r:id="rId6"/>
+    <sheet name="stats_maxsharpe_multivar_norm_t" sheetId="7" r:id="rId7"/>
+    <sheet name="stats_maxsharpe_multivar_t_t162" sheetId="8" r:id="rId8"/>
+    <sheet name="stats_maxsharpe_multivar_t_t189" sheetId="9" r:id="rId9"/>
+    <sheet name="stats_maxsharpe_multivar_t_t252" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="500">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -487,6 +493,339 @@
     <t>0.02083557767890223</t>
   </si>
   <si>
+    <t>0.4689713429498406</t>
+  </si>
+  <si>
+    <t>0.24046112611063422</t>
+  </si>
+  <si>
+    <t>0.9998503306046083</t>
+  </si>
+  <si>
+    <t>0.022442173143373313</t>
+  </si>
+  <si>
+    <t>0.4768394836660636</t>
+  </si>
+  <si>
+    <t>0.25049617206619107</t>
+  </si>
+  <si>
+    <t>1.5954497803932441</t>
+  </si>
+  <si>
+    <t>0.016063562648733695</t>
+  </si>
+  <si>
+    <t>0.6128671522879908</t>
+  </si>
+  <si>
+    <t>0.3212091609400066</t>
+  </si>
+  <si>
+    <t>1.210901446824311</t>
+  </si>
+  <si>
+    <t>0.028334594708639086</t>
+  </si>
+  <si>
+    <t>0.6005988775147907</t>
+  </si>
+  <si>
+    <t>0.31568493776061657</t>
+  </si>
+  <si>
+    <t>1.2191140182822295</t>
+  </si>
+  <si>
+    <t>0.027604830762677352</t>
+  </si>
+  <si>
+    <t>0.6016087813132718</t>
+  </si>
+  <si>
+    <t>0.31575408597585664</t>
+  </si>
+  <si>
+    <t>1.1952089177276612</t>
+  </si>
+  <si>
+    <t>0.02819382278695898</t>
+  </si>
+  <si>
+    <t>0.3774715319013005</t>
+  </si>
+  <si>
+    <t>0.19618089175058745</t>
+  </si>
+  <si>
+    <t>0.6958275138933074</t>
+  </si>
+  <si>
+    <t>0.02664442390950392</t>
+  </si>
+  <si>
+    <t>0.6173565934507986</t>
+  </si>
+  <si>
+    <t>0.3297034752088715</t>
+  </si>
+  <si>
+    <t>1.4791727963989945</t>
+  </si>
+  <si>
+    <t>0.02386080476508291</t>
+  </si>
+  <si>
+    <t>0.6183806609773052</t>
+  </si>
+  <si>
+    <t>0.330141811710226</t>
+  </si>
+  <si>
+    <t>1.481158591825557</t>
+  </si>
+  <si>
+    <t>0.023854829296384317</t>
+  </si>
+  <si>
+    <t>0.6099705494566597</t>
+  </si>
+  <si>
+    <t>0.32631355814223373</t>
+  </si>
+  <si>
+    <t>1.4766682263155966</t>
+  </si>
+  <si>
+    <t>0.02369337236097448</t>
+  </si>
+  <si>
+    <t>0.3811513216915385</t>
+  </si>
+  <si>
+    <t>0.20384367997674965</t>
+  </si>
+  <si>
+    <t>0.9019261106321731</t>
+  </si>
+  <si>
+    <t>0.021677648853323</t>
+  </si>
+  <si>
+    <t>0.45167066908727815</t>
+  </si>
+  <si>
+    <t>0.29109385232321516</t>
+  </si>
+  <si>
+    <t>0.9972778719957079</t>
+  </si>
+  <si>
+    <t>0.022455632201988315</t>
+  </si>
+  <si>
+    <t>0.4643540572080548</t>
+  </si>
+  <si>
+    <t>0.3035907684450576</t>
+  </si>
+  <si>
+    <t>1.5913652568070467</t>
+  </si>
+  <si>
+    <t>0.016071846011495135</t>
+  </si>
+  <si>
+    <t>0.5924933556849885</t>
+  </si>
+  <si>
+    <t>0.3878573222151782</t>
+  </si>
+  <si>
+    <t>1.211277951636838</t>
+  </si>
+  <si>
+    <t>0.02834468535398102</t>
+  </si>
+  <si>
+    <t>0.5809285296656034</t>
+  </si>
+  <si>
+    <t>0.3811721922122904</t>
+  </si>
+  <si>
+    <t>1.22044649019923</t>
+  </si>
+  <si>
+    <t>0.027598321011181103</t>
+  </si>
+  <si>
+    <t>0.5838872385430199</t>
+  </si>
+  <si>
+    <t>0.3823130781045504</t>
+  </si>
+  <si>
+    <t>1.1966474239678324</t>
+  </si>
+  <si>
+    <t>0.0281839195672448</t>
+  </si>
+  <si>
+    <t>0.36056141814066994</t>
+  </si>
+  <si>
+    <t>0.23507048039219308</t>
+  </si>
+  <si>
+    <t>0.6928813104177869</t>
+  </si>
+  <si>
+    <t>0.026647053638232998</t>
+  </si>
+  <si>
+    <t>0.6003630638887266</t>
+  </si>
+  <si>
+    <t>0.39744342172109387</t>
+  </si>
+  <si>
+    <t>1.4753855888096534</t>
+  </si>
+  <si>
+    <t>0.023874143829495497</t>
+  </si>
+  <si>
+    <t>0.6004641027831159</t>
+  </si>
+  <si>
+    <t>0.39770939168753755</t>
+  </si>
+  <si>
+    <t>1.4783752607079776</t>
+  </si>
+  <si>
+    <t>0.023862299706110136</t>
+  </si>
+  <si>
+    <t>0.5947960043487105</t>
+  </si>
+  <si>
+    <t>0.3943366280965982</t>
+  </si>
+  <si>
+    <t>1.4762730151800536</t>
+  </si>
+  <si>
+    <t>0.02368947485200749</t>
+  </si>
+  <si>
+    <t>0.3702374695608801</t>
+  </si>
+  <si>
+    <t>0.24567676460844548</t>
+  </si>
+  <si>
+    <t>0.9014087221748377</t>
+  </si>
+  <si>
+    <t>0.021680634850057095</t>
+  </si>
+  <si>
+    <t>0.42572315908647806</t>
+  </si>
+  <si>
+    <t>0.9947162418508082</t>
+  </si>
+  <si>
+    <t>0.02245386756245688</t>
+  </si>
+  <si>
+    <t>0.44216000997299476</t>
+  </si>
+  <si>
+    <t>1.5918454066239223</t>
+  </si>
+  <si>
+    <t>0.01606761455558996</t>
+  </si>
+  <si>
+    <t>0.5619575198097343</t>
+  </si>
+  <si>
+    <t>1.208139488600405</t>
+  </si>
+  <si>
+    <t>0.028339285956990076</t>
+  </si>
+  <si>
+    <t>0.552917522600364</t>
+  </si>
+  <si>
+    <t>1.2193954018938635</t>
+  </si>
+  <si>
+    <t>0.027601002080312055</t>
+  </si>
+  <si>
+    <t>0.5529105736367388</t>
+  </si>
+  <si>
+    <t>0.5529105736367387</t>
+  </si>
+  <si>
+    <t>1.1950914528908676</t>
+  </si>
+  <si>
+    <t>0.028186853501098442</t>
+  </si>
+  <si>
+    <t>0.3397511266798764</t>
+  </si>
+  <si>
+    <t>0.6967102360284527</t>
+  </si>
+  <si>
+    <t>0.026641334719509052</t>
+  </si>
+  <si>
+    <t>0.5775278253395001</t>
+  </si>
+  <si>
+    <t>1.4805139696288827</t>
+  </si>
+  <si>
+    <t>0.023868319501893488</t>
+  </si>
+  <si>
+    <t>0.577882971866302</t>
+  </si>
+  <si>
+    <t>1.4804546354746002</t>
+  </si>
+  <si>
+    <t>0.023860929648369444</t>
+  </si>
+  <si>
+    <t>0.570282913955085</t>
+  </si>
+  <si>
+    <t>1.4757233285612614</t>
+  </si>
+  <si>
+    <t>0.02369129844662005</t>
+  </si>
+  <si>
+    <t>0.35235702107496847</t>
+  </si>
+  <si>
+    <t>0.902573310397916</t>
+  </si>
+  <si>
+    <t>0.021675468504709063</t>
+  </si>
+  <si>
     <t>rand_ports_maxsharpe</t>
   </si>
   <si>
@@ -854,6 +1193,336 @@
   </si>
   <si>
     <t>0.014957874477719128</t>
+  </si>
+  <si>
+    <t>0.4216807504325973</t>
+  </si>
+  <si>
+    <t>0.24380553966714724</t>
+  </si>
+  <si>
+    <t>1.7198844111358498</t>
+  </si>
+  <si>
+    <t>0.01641249184457781</t>
+  </si>
+  <si>
+    <t>0.35759126486911763</t>
+  </si>
+  <si>
+    <t>0.21198051559022202</t>
+  </si>
+  <si>
+    <t>2.1981461970709826</t>
+  </si>
+  <si>
+    <t>0.011104865713824586</t>
+  </si>
+  <si>
+    <t>0.8130092477477086</t>
+  </si>
+  <si>
+    <t>0.4226163778030971</t>
+  </si>
+  <si>
+    <t>1.7740959268015564</t>
+  </si>
+  <si>
+    <t>0.02673321420175836</t>
+  </si>
+  <si>
+    <t>0.7975518721463652</t>
+  </si>
+  <si>
+    <t>0.416359298890129</t>
+  </si>
+  <si>
+    <t>1.7840447190212891</t>
+  </si>
+  <si>
+    <t>0.02625661789262542</t>
+  </si>
+  <si>
+    <t>0.8097766965945431</t>
+  </si>
+  <si>
+    <t>0.42095441861159655</t>
+  </si>
+  <si>
+    <t>1.7687028312100657</t>
+  </si>
+  <si>
+    <t>0.02673239850428343</t>
+  </si>
+  <si>
+    <t>0.5346934934791115</t>
+  </si>
+  <si>
+    <t>0.2912649128437909</t>
+  </si>
+  <si>
+    <t>1.4617112003157158</t>
+  </si>
+  <si>
+    <t>0.022267844074130596</t>
+  </si>
+  <si>
+    <t>0.6216202112845768</t>
+  </si>
+  <si>
+    <t>0.3339830615624455</t>
+  </si>
+  <si>
+    <t>2.122206164626114</t>
+  </si>
+  <si>
+    <t>0.018136486520509504</t>
+  </si>
+  <si>
+    <t>0.6183641134549062</t>
+  </si>
+  <si>
+    <t>0.33289679411618045</t>
+  </si>
+  <si>
+    <t>2.121350674684077</t>
+  </si>
+  <si>
+    <t>0.018138620890781085</t>
+  </si>
+  <si>
+    <t>0.6174390658319631</t>
+  </si>
+  <si>
+    <t>0.33234076660745554</t>
+  </si>
+  <si>
+    <t>2.1197190132744534</t>
+  </si>
+  <si>
+    <t>0.018095647556165363</t>
+  </si>
+  <si>
+    <t>0.44371859666715635</t>
+  </si>
+  <si>
+    <t>0.2493275209893226</t>
+  </si>
+  <si>
+    <t>1.8200842505308161</t>
+  </si>
+  <si>
+    <t>0.01558690551507901</t>
+  </si>
+  <si>
+    <t>0.4160676355687889</t>
+  </si>
+  <si>
+    <t>0.29060402935115964</t>
+  </si>
+  <si>
+    <t>1.7205722986284873</t>
+  </si>
+  <si>
+    <t>0.01640992530178576</t>
+  </si>
+  <si>
+    <t>0.35409975768637353</t>
+  </si>
+  <si>
+    <t>0.2514184666645772</t>
+  </si>
+  <si>
+    <t>2.195951669290586</t>
+  </si>
+  <si>
+    <t>0.011104925059520465</t>
+  </si>
+  <si>
+    <t>0.7848321393114583</t>
+  </si>
+  <si>
+    <t>0.5114416053682078</t>
+  </si>
+  <si>
+    <t>1.775748937157078</t>
+  </si>
+  <si>
+    <t>0.026734993475289785</t>
+  </si>
+  <si>
+    <t>0.7734196055072071</t>
+  </si>
+  <si>
+    <t>0.5047857845206869</t>
+  </si>
+  <si>
+    <t>1.783367428010135</t>
+  </si>
+  <si>
+    <t>0.02625221710928335</t>
+  </si>
+  <si>
+    <t>0.7832891520355083</t>
+  </si>
+  <si>
+    <t>0.5103328891282755</t>
+  </si>
+  <si>
+    <t>1.7703625083828451</t>
+  </si>
+  <si>
+    <t>0.026737711554806504</t>
+  </si>
+  <si>
+    <t>0.5191669074908873</t>
+  </si>
+  <si>
+    <t>0.3488459139839823</t>
+  </si>
+  <si>
+    <t>1.4576558996797448</t>
+  </si>
+  <si>
+    <t>0.022278415350394654</t>
+  </si>
+  <si>
+    <t>0.6026990003169861</t>
+  </si>
+  <si>
+    <t>0.40145102269970667</t>
+  </si>
+  <si>
+    <t>2.1197010305412145</t>
+  </si>
+  <si>
+    <t>0.01813945101836605</t>
+  </si>
+  <si>
+    <t>0.6053861804890629</t>
+  </si>
+  <si>
+    <t>0.4029465941063593</t>
+  </si>
+  <si>
+    <t>2.1220662208506247</t>
+  </si>
+  <si>
+    <t>0.018126426872766773</t>
+  </si>
+  <si>
+    <t>0.6025875235945436</t>
+  </si>
+  <si>
+    <t>0.4012534468048311</t>
+  </si>
+  <si>
+    <t>2.121838580924027</t>
+  </si>
+  <si>
+    <t>0.018097375564096855</t>
+  </si>
+  <si>
+    <t>0.4349188744180815</t>
+  </si>
+  <si>
+    <t>0.29833645415006627</t>
+  </si>
+  <si>
+    <t>1.8198734863212038</t>
+  </si>
+  <si>
+    <t>0.015588527200550465</t>
+  </si>
+  <si>
+    <t>0.407928491281123</t>
+  </si>
+  <si>
+    <t>1.7207966193326416</t>
+  </si>
+  <si>
+    <t>0.01641119697679892</t>
+  </si>
+  <si>
+    <t>0.35048113346144905</t>
+  </si>
+  <si>
+    <t>2.198379497590798</t>
+  </si>
+  <si>
+    <t>0.011106611476403022</t>
+  </si>
+  <si>
+    <t>0.7505659572768186</t>
+  </si>
+  <si>
+    <t>1.7756589532744556</t>
+  </si>
+  <si>
+    <t>0.026724282386076693</t>
+  </si>
+  <si>
+    <t>0.7390938338452138</t>
+  </si>
+  <si>
+    <t>1.7846644808138086</t>
+  </si>
+  <si>
+    <t>0.02625327848088891</t>
+  </si>
+  <si>
+    <t>0.7450969333554495</t>
+  </si>
+  <si>
+    <t>1.76690317938466</t>
+  </si>
+  <si>
+    <t>0.026731196144564172</t>
+  </si>
+  <si>
+    <t>0.5008513272695796</t>
+  </si>
+  <si>
+    <t>1.4618817118553202</t>
+  </si>
+  <si>
+    <t>0.022270493911810598</t>
+  </si>
+  <si>
+    <t>0.5831517774769454</t>
+  </si>
+  <si>
+    <t>2.123512268461067</t>
+  </si>
+  <si>
+    <t>0.01813333208918998</t>
+  </si>
+  <si>
+    <t>0.5833767881802987</t>
+  </si>
+  <si>
+    <t>2.1234083548911524</t>
+  </si>
+  <si>
+    <t>0.01813235041683309</t>
+  </si>
+  <si>
+    <t>0.5793721227332002</t>
+  </si>
+  <si>
+    <t>2.121327509524113</t>
+  </si>
+  <si>
+    <t>0.0180964686419019</t>
+  </si>
+  <si>
+    <t>0.4246356886531449</t>
+  </si>
+  <si>
+    <t>1.819726957924249</t>
+  </si>
+  <si>
+    <t>0.015588320748688945</t>
   </si>
 </sst>
 </file>
@@ -1429,6 +2098,226 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="B2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C2" t="s">
+        <v>272</v>
+      </c>
+      <c r="D2" t="s">
+        <v>277</v>
+      </c>
+      <c r="E2" t="s">
+        <v>282</v>
+      </c>
+      <c r="F2" t="s">
+        <v>287</v>
+      </c>
+      <c r="G2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H2" t="s">
+        <v>297</v>
+      </c>
+      <c r="I2" t="s">
+        <v>302</v>
+      </c>
+      <c r="J2" t="s">
+        <v>307</v>
+      </c>
+      <c r="K2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>470</v>
+      </c>
+      <c r="C3" t="s">
+        <v>473</v>
+      </c>
+      <c r="D3" t="s">
+        <v>476</v>
+      </c>
+      <c r="E3" t="s">
+        <v>479</v>
+      </c>
+      <c r="F3" t="s">
+        <v>482</v>
+      </c>
+      <c r="G3" t="s">
+        <v>485</v>
+      </c>
+      <c r="H3" t="s">
+        <v>488</v>
+      </c>
+      <c r="I3" t="s">
+        <v>491</v>
+      </c>
+      <c r="J3" t="s">
+        <v>494</v>
+      </c>
+      <c r="K3" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>470</v>
+      </c>
+      <c r="C4" t="s">
+        <v>473</v>
+      </c>
+      <c r="D4" t="s">
+        <v>476</v>
+      </c>
+      <c r="E4" t="s">
+        <v>479</v>
+      </c>
+      <c r="F4" t="s">
+        <v>482</v>
+      </c>
+      <c r="G4" t="s">
+        <v>485</v>
+      </c>
+      <c r="H4" t="s">
+        <v>488</v>
+      </c>
+      <c r="I4" t="s">
+        <v>491</v>
+      </c>
+      <c r="J4" t="s">
+        <v>494</v>
+      </c>
+      <c r="K4" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>471</v>
+      </c>
+      <c r="C5" t="s">
+        <v>474</v>
+      </c>
+      <c r="D5" t="s">
+        <v>477</v>
+      </c>
+      <c r="E5" t="s">
+        <v>480</v>
+      </c>
+      <c r="F5" t="s">
+        <v>483</v>
+      </c>
+      <c r="G5" t="s">
+        <v>486</v>
+      </c>
+      <c r="H5" t="s">
+        <v>489</v>
+      </c>
+      <c r="I5" t="s">
+        <v>492</v>
+      </c>
+      <c r="J5" t="s">
+        <v>495</v>
+      </c>
+      <c r="K5" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>472</v>
+      </c>
+      <c r="C6" t="s">
+        <v>475</v>
+      </c>
+      <c r="D6" t="s">
+        <v>478</v>
+      </c>
+      <c r="E6" t="s">
+        <v>481</v>
+      </c>
+      <c r="F6" t="s">
+        <v>484</v>
+      </c>
+      <c r="G6" t="s">
+        <v>487</v>
+      </c>
+      <c r="H6" t="s">
+        <v>490</v>
+      </c>
+      <c r="I6" t="s">
+        <v>493</v>
+      </c>
+      <c r="J6" t="s">
+        <v>496</v>
+      </c>
+      <c r="K6" t="s">
+        <v>499</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K6"/>
@@ -1882,66 +2771,66 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>115</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>116</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>117</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>118</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>119</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>120</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>121</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>122</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>123</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>124</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="B2" t="s">
-        <v>156</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>161</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>166</v>
+        <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>171</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>176</v>
+        <v>35</v>
       </c>
       <c r="G2" t="s">
-        <v>181</v>
+        <v>40</v>
       </c>
       <c r="H2" t="s">
-        <v>186</v>
+        <v>45</v>
       </c>
       <c r="I2" t="s">
-        <v>191</v>
+        <v>50</v>
       </c>
       <c r="J2" t="s">
-        <v>196</v>
+        <v>55</v>
       </c>
       <c r="K2" t="s">
-        <v>201</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1949,34 +2838,34 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>246</v>
+        <v>156</v>
       </c>
       <c r="C3" t="s">
-        <v>249</v>
+        <v>160</v>
       </c>
       <c r="D3" t="s">
-        <v>253</v>
+        <v>164</v>
       </c>
       <c r="E3" t="s">
-        <v>256</v>
+        <v>168</v>
       </c>
       <c r="F3" t="s">
-        <v>259</v>
+        <v>172</v>
       </c>
       <c r="G3" t="s">
-        <v>262</v>
+        <v>176</v>
       </c>
       <c r="H3" t="s">
-        <v>266</v>
+        <v>180</v>
       </c>
       <c r="I3" t="s">
-        <v>269</v>
+        <v>184</v>
       </c>
       <c r="J3" t="s">
-        <v>272</v>
+        <v>188</v>
       </c>
       <c r="K3" t="s">
-        <v>276</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1984,34 +2873,34 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>246</v>
+        <v>157</v>
       </c>
       <c r="C4" t="s">
-        <v>250</v>
+        <v>161</v>
       </c>
       <c r="D4" t="s">
-        <v>253</v>
+        <v>165</v>
       </c>
       <c r="E4" t="s">
-        <v>256</v>
+        <v>169</v>
       </c>
       <c r="F4" t="s">
-        <v>259</v>
+        <v>173</v>
       </c>
       <c r="G4" t="s">
-        <v>263</v>
+        <v>177</v>
       </c>
       <c r="H4" t="s">
-        <v>266</v>
+        <v>181</v>
       </c>
       <c r="I4" t="s">
-        <v>269</v>
+        <v>185</v>
       </c>
       <c r="J4" t="s">
-        <v>273</v>
+        <v>189</v>
       </c>
       <c r="K4" t="s">
-        <v>276</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -2019,34 +2908,34 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>247</v>
+        <v>158</v>
       </c>
       <c r="C5" t="s">
-        <v>251</v>
+        <v>162</v>
       </c>
       <c r="D5" t="s">
-        <v>254</v>
+        <v>166</v>
       </c>
       <c r="E5" t="s">
-        <v>257</v>
+        <v>170</v>
       </c>
       <c r="F5" t="s">
-        <v>260</v>
+        <v>174</v>
       </c>
       <c r="G5" t="s">
-        <v>264</v>
+        <v>178</v>
       </c>
       <c r="H5" t="s">
-        <v>267</v>
+        <v>182</v>
       </c>
       <c r="I5" t="s">
-        <v>270</v>
+        <v>186</v>
       </c>
       <c r="J5" t="s">
-        <v>274</v>
+        <v>190</v>
       </c>
       <c r="K5" t="s">
-        <v>277</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -2054,34 +2943,1134 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
+        <v>159</v>
+      </c>
+      <c r="C6" t="s">
+        <v>163</v>
+      </c>
+      <c r="D6" t="s">
+        <v>167</v>
+      </c>
+      <c r="E6" t="s">
+        <v>171</v>
+      </c>
+      <c r="F6" t="s">
+        <v>175</v>
+      </c>
+      <c r="G6" t="s">
+        <v>179</v>
+      </c>
+      <c r="H6" t="s">
+        <v>183</v>
+      </c>
+      <c r="I6" t="s">
+        <v>187</v>
+      </c>
+      <c r="J6" t="s">
+        <v>191</v>
+      </c>
+      <c r="K6" t="s">
+        <v>195</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E3" t="s">
+        <v>208</v>
+      </c>
+      <c r="F3" t="s">
+        <v>212</v>
+      </c>
+      <c r="G3" t="s">
+        <v>216</v>
+      </c>
+      <c r="H3" t="s">
+        <v>220</v>
+      </c>
+      <c r="I3" t="s">
+        <v>224</v>
+      </c>
+      <c r="J3" t="s">
+        <v>228</v>
+      </c>
+      <c r="K3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C4" t="s">
+        <v>201</v>
+      </c>
+      <c r="D4" t="s">
+        <v>205</v>
+      </c>
+      <c r="E4" t="s">
+        <v>209</v>
+      </c>
+      <c r="F4" t="s">
+        <v>213</v>
+      </c>
+      <c r="G4" t="s">
+        <v>217</v>
+      </c>
+      <c r="H4" t="s">
+        <v>221</v>
+      </c>
+      <c r="I4" t="s">
+        <v>225</v>
+      </c>
+      <c r="J4" t="s">
+        <v>229</v>
+      </c>
+      <c r="K4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>198</v>
+      </c>
+      <c r="C5" t="s">
+        <v>202</v>
+      </c>
+      <c r="D5" t="s">
+        <v>206</v>
+      </c>
+      <c r="E5" t="s">
+        <v>210</v>
+      </c>
+      <c r="F5" t="s">
+        <v>214</v>
+      </c>
+      <c r="G5" t="s">
+        <v>218</v>
+      </c>
+      <c r="H5" t="s">
+        <v>222</v>
+      </c>
+      <c r="I5" t="s">
+        <v>226</v>
+      </c>
+      <c r="J5" t="s">
+        <v>230</v>
+      </c>
+      <c r="K5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>199</v>
+      </c>
+      <c r="C6" t="s">
+        <v>203</v>
+      </c>
+      <c r="D6" t="s">
+        <v>207</v>
+      </c>
+      <c r="E6" t="s">
+        <v>211</v>
+      </c>
+      <c r="F6" t="s">
+        <v>215</v>
+      </c>
+      <c r="G6" t="s">
+        <v>219</v>
+      </c>
+      <c r="H6" t="s">
+        <v>223</v>
+      </c>
+      <c r="I6" t="s">
+        <v>227</v>
+      </c>
+      <c r="J6" t="s">
+        <v>231</v>
+      </c>
+      <c r="K6" t="s">
+        <v>235</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D3" t="s">
+        <v>242</v>
+      </c>
+      <c r="E3" t="s">
+        <v>245</v>
+      </c>
+      <c r="F3" t="s">
         <v>248</v>
       </c>
+      <c r="G3" t="s">
+        <v>252</v>
+      </c>
+      <c r="H3" t="s">
+        <v>255</v>
+      </c>
+      <c r="I3" t="s">
+        <v>258</v>
+      </c>
+      <c r="J3" t="s">
+        <v>261</v>
+      </c>
+      <c r="K3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>236</v>
+      </c>
+      <c r="C4" t="s">
+        <v>239</v>
+      </c>
+      <c r="D4" t="s">
+        <v>242</v>
+      </c>
+      <c r="E4" t="s">
+        <v>245</v>
+      </c>
+      <c r="F4" t="s">
+        <v>249</v>
+      </c>
+      <c r="G4" t="s">
+        <v>252</v>
+      </c>
+      <c r="H4" t="s">
+        <v>255</v>
+      </c>
+      <c r="I4" t="s">
+        <v>258</v>
+      </c>
+      <c r="J4" t="s">
+        <v>261</v>
+      </c>
+      <c r="K4" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>237</v>
+      </c>
+      <c r="C5" t="s">
+        <v>240</v>
+      </c>
+      <c r="D5" t="s">
+        <v>243</v>
+      </c>
+      <c r="E5" t="s">
+        <v>246</v>
+      </c>
+      <c r="F5" t="s">
+        <v>250</v>
+      </c>
+      <c r="G5" t="s">
+        <v>253</v>
+      </c>
+      <c r="H5" t="s">
+        <v>256</v>
+      </c>
+      <c r="I5" t="s">
+        <v>259</v>
+      </c>
+      <c r="J5" t="s">
+        <v>262</v>
+      </c>
+      <c r="K5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>238</v>
+      </c>
       <c r="C6" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="D6" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="E6" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="F6" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="G6" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="H6" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="I6" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="J6" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="K6" t="s">
-        <v>278</v>
+        <v>266</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="B2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C2" t="s">
+        <v>272</v>
+      </c>
+      <c r="D2" t="s">
+        <v>277</v>
+      </c>
+      <c r="E2" t="s">
+        <v>282</v>
+      </c>
+      <c r="F2" t="s">
+        <v>287</v>
+      </c>
+      <c r="G2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H2" t="s">
+        <v>297</v>
+      </c>
+      <c r="I2" t="s">
+        <v>302</v>
+      </c>
+      <c r="J2" t="s">
+        <v>307</v>
+      </c>
+      <c r="K2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>357</v>
+      </c>
+      <c r="C3" t="s">
+        <v>360</v>
+      </c>
+      <c r="D3" t="s">
+        <v>364</v>
+      </c>
+      <c r="E3" t="s">
+        <v>367</v>
+      </c>
+      <c r="F3" t="s">
+        <v>370</v>
+      </c>
+      <c r="G3" t="s">
+        <v>373</v>
+      </c>
+      <c r="H3" t="s">
+        <v>377</v>
+      </c>
+      <c r="I3" t="s">
+        <v>380</v>
+      </c>
+      <c r="J3" t="s">
+        <v>383</v>
+      </c>
+      <c r="K3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>357</v>
+      </c>
+      <c r="C4" t="s">
+        <v>361</v>
+      </c>
+      <c r="D4" t="s">
+        <v>364</v>
+      </c>
+      <c r="E4" t="s">
+        <v>367</v>
+      </c>
+      <c r="F4" t="s">
+        <v>370</v>
+      </c>
+      <c r="G4" t="s">
+        <v>374</v>
+      </c>
+      <c r="H4" t="s">
+        <v>377</v>
+      </c>
+      <c r="I4" t="s">
+        <v>380</v>
+      </c>
+      <c r="J4" t="s">
+        <v>384</v>
+      </c>
+      <c r="K4" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>358</v>
+      </c>
+      <c r="C5" t="s">
+        <v>362</v>
+      </c>
+      <c r="D5" t="s">
+        <v>365</v>
+      </c>
+      <c r="E5" t="s">
+        <v>368</v>
+      </c>
+      <c r="F5" t="s">
+        <v>371</v>
+      </c>
+      <c r="G5" t="s">
+        <v>375</v>
+      </c>
+      <c r="H5" t="s">
+        <v>378</v>
+      </c>
+      <c r="I5" t="s">
+        <v>381</v>
+      </c>
+      <c r="J5" t="s">
+        <v>385</v>
+      </c>
+      <c r="K5" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>359</v>
+      </c>
+      <c r="C6" t="s">
+        <v>363</v>
+      </c>
+      <c r="D6" t="s">
+        <v>366</v>
+      </c>
+      <c r="E6" t="s">
+        <v>369</v>
+      </c>
+      <c r="F6" t="s">
+        <v>372</v>
+      </c>
+      <c r="G6" t="s">
+        <v>376</v>
+      </c>
+      <c r="H6" t="s">
+        <v>379</v>
+      </c>
+      <c r="I6" t="s">
+        <v>382</v>
+      </c>
+      <c r="J6" t="s">
+        <v>386</v>
+      </c>
+      <c r="K6" t="s">
+        <v>389</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="B2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C2" t="s">
+        <v>272</v>
+      </c>
+      <c r="D2" t="s">
+        <v>277</v>
+      </c>
+      <c r="E2" t="s">
+        <v>282</v>
+      </c>
+      <c r="F2" t="s">
+        <v>287</v>
+      </c>
+      <c r="G2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H2" t="s">
+        <v>297</v>
+      </c>
+      <c r="I2" t="s">
+        <v>302</v>
+      </c>
+      <c r="J2" t="s">
+        <v>307</v>
+      </c>
+      <c r="K2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>390</v>
+      </c>
+      <c r="C3" t="s">
+        <v>394</v>
+      </c>
+      <c r="D3" t="s">
+        <v>398</v>
+      </c>
+      <c r="E3" t="s">
+        <v>402</v>
+      </c>
+      <c r="F3" t="s">
+        <v>406</v>
+      </c>
+      <c r="G3" t="s">
+        <v>410</v>
+      </c>
+      <c r="H3" t="s">
+        <v>414</v>
+      </c>
+      <c r="I3" t="s">
+        <v>418</v>
+      </c>
+      <c r="J3" t="s">
+        <v>422</v>
+      </c>
+      <c r="K3" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>391</v>
+      </c>
+      <c r="C4" t="s">
+        <v>395</v>
+      </c>
+      <c r="D4" t="s">
+        <v>399</v>
+      </c>
+      <c r="E4" t="s">
+        <v>403</v>
+      </c>
+      <c r="F4" t="s">
+        <v>407</v>
+      </c>
+      <c r="G4" t="s">
+        <v>411</v>
+      </c>
+      <c r="H4" t="s">
+        <v>415</v>
+      </c>
+      <c r="I4" t="s">
+        <v>419</v>
+      </c>
+      <c r="J4" t="s">
+        <v>423</v>
+      </c>
+      <c r="K4" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>392</v>
+      </c>
+      <c r="C5" t="s">
+        <v>396</v>
+      </c>
+      <c r="D5" t="s">
+        <v>400</v>
+      </c>
+      <c r="E5" t="s">
+        <v>404</v>
+      </c>
+      <c r="F5" t="s">
+        <v>408</v>
+      </c>
+      <c r="G5" t="s">
+        <v>412</v>
+      </c>
+      <c r="H5" t="s">
+        <v>416</v>
+      </c>
+      <c r="I5" t="s">
+        <v>420</v>
+      </c>
+      <c r="J5" t="s">
+        <v>424</v>
+      </c>
+      <c r="K5" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>393</v>
+      </c>
+      <c r="C6" t="s">
+        <v>397</v>
+      </c>
+      <c r="D6" t="s">
+        <v>401</v>
+      </c>
+      <c r="E6" t="s">
+        <v>405</v>
+      </c>
+      <c r="F6" t="s">
+        <v>409</v>
+      </c>
+      <c r="G6" t="s">
+        <v>413</v>
+      </c>
+      <c r="H6" t="s">
+        <v>417</v>
+      </c>
+      <c r="I6" t="s">
+        <v>421</v>
+      </c>
+      <c r="J6" t="s">
+        <v>425</v>
+      </c>
+      <c r="K6" t="s">
+        <v>429</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="B2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C2" t="s">
+        <v>272</v>
+      </c>
+      <c r="D2" t="s">
+        <v>277</v>
+      </c>
+      <c r="E2" t="s">
+        <v>282</v>
+      </c>
+      <c r="F2" t="s">
+        <v>287</v>
+      </c>
+      <c r="G2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H2" t="s">
+        <v>297</v>
+      </c>
+      <c r="I2" t="s">
+        <v>302</v>
+      </c>
+      <c r="J2" t="s">
+        <v>307</v>
+      </c>
+      <c r="K2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>430</v>
+      </c>
+      <c r="C3" t="s">
+        <v>434</v>
+      </c>
+      <c r="D3" t="s">
+        <v>438</v>
+      </c>
+      <c r="E3" t="s">
+        <v>442</v>
+      </c>
+      <c r="F3" t="s">
+        <v>446</v>
+      </c>
+      <c r="G3" t="s">
+        <v>450</v>
+      </c>
+      <c r="H3" t="s">
+        <v>454</v>
+      </c>
+      <c r="I3" t="s">
+        <v>458</v>
+      </c>
+      <c r="J3" t="s">
+        <v>462</v>
+      </c>
+      <c r="K3" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>431</v>
+      </c>
+      <c r="C4" t="s">
+        <v>435</v>
+      </c>
+      <c r="D4" t="s">
+        <v>439</v>
+      </c>
+      <c r="E4" t="s">
+        <v>443</v>
+      </c>
+      <c r="F4" t="s">
+        <v>447</v>
+      </c>
+      <c r="G4" t="s">
+        <v>451</v>
+      </c>
+      <c r="H4" t="s">
+        <v>455</v>
+      </c>
+      <c r="I4" t="s">
+        <v>459</v>
+      </c>
+      <c r="J4" t="s">
+        <v>463</v>
+      </c>
+      <c r="K4" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>432</v>
+      </c>
+      <c r="C5" t="s">
+        <v>436</v>
+      </c>
+      <c r="D5" t="s">
+        <v>440</v>
+      </c>
+      <c r="E5" t="s">
+        <v>444</v>
+      </c>
+      <c r="F5" t="s">
+        <v>448</v>
+      </c>
+      <c r="G5" t="s">
+        <v>452</v>
+      </c>
+      <c r="H5" t="s">
+        <v>456</v>
+      </c>
+      <c r="I5" t="s">
+        <v>460</v>
+      </c>
+      <c r="J5" t="s">
+        <v>464</v>
+      </c>
+      <c r="K5" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>433</v>
+      </c>
+      <c r="C6" t="s">
+        <v>437</v>
+      </c>
+      <c r="D6" t="s">
+        <v>441</v>
+      </c>
+      <c r="E6" t="s">
+        <v>445</v>
+      </c>
+      <c r="F6" t="s">
+        <v>449</v>
+      </c>
+      <c r="G6" t="s">
+        <v>453</v>
+      </c>
+      <c r="H6" t="s">
+        <v>457</v>
+      </c>
+      <c r="I6" t="s">
+        <v>461</v>
+      </c>
+      <c r="J6" t="s">
+        <v>465</v>
+      </c>
+      <c r="K6" t="s">
+        <v>469</v>
       </c>
     </row>
   </sheetData>
